--- a/branches/update-code-systems/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,19 +105,19 @@
     <t>77386006</t>
   </si>
   <si>
-    <t>Currently pregnant</t>
+    <t>Pregnancy</t>
   </si>
   <si>
     <t>428450006</t>
   </si>
   <si>
-    <t>Repeat</t>
+    <t>Repeat laboratory specimen sent</t>
   </si>
   <si>
     <t>171111007</t>
   </si>
   <si>
-    <t>Results not available</t>
+    <t>Screened - no result yet</t>
   </si>
   <si>
     <t>266721009</t>
@@ -129,49 +129,49 @@
     <t>170564007</t>
   </si>
   <si>
-    <t>Chronic disease - treatment changed (finding)</t>
+    <t>Chronic disease - treatment changed</t>
   </si>
   <si>
     <t>413712001</t>
   </si>
   <si>
-    <t>Breastfeeding (mother) (observable entity)</t>
+    <t>Breastfeeding (mother)</t>
   </si>
   <si>
     <t>315124004</t>
   </si>
   <si>
-    <t>Baseline Viral Load / Routine Viral Load</t>
+    <t>Human immunodeficiency virus viral load</t>
   </si>
   <si>
     <t>2528003</t>
   </si>
   <si>
-    <t>Persistent low-Level viraemia</t>
+    <t>Viremia</t>
   </si>
   <si>
     <t>441510007</t>
   </si>
   <si>
-    <t>Blood sample coagulated</t>
+    <t>Blood specimen with anticoagulant</t>
   </si>
   <si>
     <t>123840003</t>
   </si>
   <si>
-    <t>Contaminated specimen</t>
+    <t>Sample contaminated</t>
   </si>
   <si>
     <t>397933008</t>
   </si>
   <si>
-    <t>Equipment failure</t>
+    <t>Equipment error/failure</t>
   </si>
   <si>
     <t>281264009</t>
   </si>
   <si>
-    <t>Inappropriate sample container used</t>
+    <t>Inappropriate bottle or container for sample</t>
   </si>
   <si>
     <t>281268007</t>
@@ -183,7 +183,7 @@
     <t>281265005</t>
   </si>
   <si>
-    <t>Specimen not labeled</t>
+    <t>Sample incorrectly labeled</t>
   </si>
   <si>
     <t>419182006</t>
